--- a/Assets/Resources/Configs/Excel/ResourceConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19080" windowHeight="8340"/>
+    <workbookView windowWidth="18480" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>资源Id</t>
   </si>
@@ -25,6 +25,9 @@
     <t>图片</t>
   </si>
   <si>
+    <t>简介</t>
+  </si>
+  <si>
     <t>#ResourceInfo</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -46,10 +52,16 @@
     <t>r_1</t>
   </si>
   <si>
+    <t>游戏的主要货币,据说是,某种外星物质制成</t>
+  </si>
+  <si>
     <t>钻石</t>
   </si>
   <si>
     <t>r_2</t>
+  </si>
+  <si>
+    <t>钻石简介</t>
   </si>
 </sst>
 </file>
@@ -423,18 +435,20 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -451,18 +465,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,49 +486,64 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Configs/Excel/ResourceConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/ResourceConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="7440"/>
+    <workbookView windowWidth="28700" windowHeight="13040"/>
   </bookViews>
   <sheets>
     <sheet name="Resource" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>资源Id</t>
   </si>
@@ -28,6 +28,9 @@
     <t>简介</t>
   </si>
   <si>
+    <t>获取途径</t>
+  </si>
+  <si>
     <t>#ResourceInfo</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>ways</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -62,6 +68,135 @@
   </si>
   <si>
     <t>钻石简介</t>
+  </si>
+  <si>
+    <t>技能券轴</t>
+  </si>
+  <si>
+    <t>r_4</t>
+  </si>
+  <si>
+    <t>技能券轴,用于学习技能,可以做任务获取</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>铁块</t>
+  </si>
+  <si>
+    <t>r_5</t>
+  </si>
+  <si>
+    <t>简介简介简介简介简介简介简介简介简介简介简介简介</t>
+  </si>
+  <si>
+    <t>硬木</t>
+  </si>
+  <si>
+    <t>r_6</t>
+  </si>
+  <si>
+    <t>麻绳</t>
+  </si>
+  <si>
+    <t>r_7</t>
+  </si>
+  <si>
+    <t>狼牙</t>
+  </si>
+  <si>
+    <t>r_8</t>
+  </si>
+  <si>
+    <t>兽皮</t>
+  </si>
+  <si>
+    <t>r_9</t>
+  </si>
+  <si>
+    <t>细木枝</t>
+  </si>
+  <si>
+    <t>r_10</t>
+  </si>
+  <si>
+    <t>铜块</t>
+  </si>
+  <si>
+    <t>r_11</t>
+  </si>
+  <si>
+    <t>细铁</t>
+  </si>
+  <si>
+    <t>r_12</t>
+  </si>
+  <si>
+    <t>绒布</t>
+  </si>
+  <si>
+    <t>r_13</t>
+  </si>
+  <si>
+    <t>皮革</t>
+  </si>
+  <si>
+    <t>r_14</t>
+  </si>
+  <si>
+    <t>水晶</t>
+  </si>
+  <si>
+    <t>r_15</t>
+  </si>
+  <si>
+    <t>秘能水晶</t>
+  </si>
+  <si>
+    <t>r_16</t>
+  </si>
+  <si>
+    <t>火山石</t>
+  </si>
+  <si>
+    <t>r_17</t>
+  </si>
+  <si>
+    <t>裁决水晶</t>
+  </si>
+  <si>
+    <t>r_18</t>
+  </si>
+  <si>
+    <t>辉光水晶</t>
+  </si>
+  <si>
+    <t>r_19</t>
+  </si>
+  <si>
+    <t>精金锭</t>
+  </si>
+  <si>
+    <t>r_20</t>
+  </si>
+  <si>
+    <t>圣羽丝线</t>
+  </si>
+  <si>
+    <t>r_21</t>
+  </si>
+  <si>
+    <t>鱼鳞</t>
+  </si>
+  <si>
+    <t>r_22</t>
+  </si>
+  <si>
+    <t>兽骨</t>
+  </si>
+  <si>
+    <t>r_23</t>
   </si>
 </sst>
 </file>
@@ -69,15 +204,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -118,8 +258,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,18 +614,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D36" sqref="D36:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="42.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,61 +639,416 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:5">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
